--- a/xlsx/经济、社会、文化权利国际公约_intext.xlsx
+++ b/xlsx/经济、社会、文化权利国际公约_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="407">
   <si>
     <t>经济、社会、文化权利国际公约</t>
   </si>
@@ -29,7 +29,7 @@
     <t>联合国</t>
   </si>
   <si>
-    <t>政策_政策_美國_经济、社会、文化权利国际公约</t>
+    <t>政策_政策_美国_经济、社会、文化权利国际公约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%9D%83</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E7%B4%84</t>
   </si>
   <si>
-    <t>公約</t>
+    <t>公约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E6%9D%83%E5%88%A9%E5%92%8C%E6%94%BF%E6%B2%BB%E6%9D%83%E5%88%A9%E5%9B%BD%E9%99%85%E5%85%AC%E7%BA%A6</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞美尼亞</t>
+    <t>亚美尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>白俄羅斯</t>
+    <t>白俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF%E8%8B%8F%E7%BB%B4%E5%9F%83%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
+    <t>比利时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%88%A9%E5%85%B9</t>
@@ -191,13 +191,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻利維亞</t>
+    <t>玻利维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E5%B0%BC%E4%BA%9E%E8%88%87%E8%B5%AB%E5%A1%9E%E5%93%A5%E7%B6%AD%E7%B4%8D</t>
   </si>
   <si>
-    <t>波士尼亞與赫塞哥維納</t>
+    <t>波士尼亚与赫塞哥维纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%90%89%E7%B4%8D%E6%B3%95%E7%B4%A2</t>
   </si>
   <si>
-    <t>布吉納法索</t>
+    <t>布吉纳法索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%B2%E9%9A%86%E5%9C%B0</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -299,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>剛果共和國</t>
+    <t>刚果共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E8%BE%BE%E9%BB%8E%E5%8A%A0</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>賽普勒斯</t>
+    <t>赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B</t>
@@ -341,19 +341,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E6%B0%91%E4%B8%BB%E4%B8%BB%E7%BE%A9%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>朝鮮民主主義人民共和國</t>
+    <t>朝鲜民主主义人民共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>剛果民主共和國</t>
+    <t>刚果民主共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
+    <t>丹麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B8%83%E6%8F%90</t>
@@ -389,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%88%BE%E7%93%A6%E5%A4%9A</t>
   </si>
   <si>
-    <t>薩爾瓦多</t>
+    <t>萨尔瓦多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93%E5%87%A0%E5%86%85%E4%BA%9A</t>
@@ -413,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A3%E7%B4%A2%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>衣索比亞</t>
+    <t>衣索比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E5%85%B0</t>
@@ -449,7 +449,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%BA%B3</t>
@@ -461,13 +461,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘</t>
+    <t>希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E7%91%9E%E9%82%A3%E9%81%94</t>
   </si>
   <si>
-    <t>格瑞那達</t>
+    <t>格瑞那达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E5%9C%B0%E9%A9%AC%E6%8B%89</t>
@@ -515,7 +515,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6</t>
   </si>
   <si>
-    <t>冰島</t>
+    <t>冰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
@@ -545,7 +545,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>愛爾蘭共和國</t>
+    <t>爱尔兰共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97</t>
@@ -557,7 +557,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%99%E4%B9%B0%E5%8A%A0</t>
@@ -599,7 +599,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%88%BE%E5%90%89%E6%96%AF</t>
   </si>
   <si>
-    <t>吉爾吉斯</t>
+    <t>吉尔吉斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%81%E6%8C%9D</t>
@@ -611,7 +611,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>拉脫維亞</t>
+    <t>拉脱维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E5%B7%B4%E5%AB%A9</t>
@@ -623,7 +623,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%B4%E7%B4%A2%E6%89%98</t>
   </si>
   <si>
-    <t>賴索托</t>
+    <t>赖索托</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E9%87%8C%E4%BA%9A</t>
@@ -665,25 +665,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8B%89%E5%A8%81</t>
   </si>
   <si>
-    <t>馬拉威</t>
+    <t>马拉威</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E5%9C%B0%E5%A4%AB</t>
   </si>
   <si>
-    <t>馬爾地夫</t>
+    <t>马尔地夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>馬里共和國</t>
+    <t>马里共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96</t>
   </si>
   <si>
-    <t>馬爾他</t>
+    <t>马尔他</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E9%87%8C%E5%A1%94%E5%B0%BC%E4%BA%9A</t>
@@ -707,7 +707,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%B4%8D%E5%93%A5</t>
   </si>
   <si>
-    <t>摩納哥</t>
+    <t>摩纳哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E5%9B%BD</t>
@@ -719,7 +719,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
   </si>
   <si>
-    <t>蒙特內哥羅</t>
+    <t>蒙特内哥罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%B4%9B%E5%93%A5</t>
@@ -743,13 +743,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>新西蘭</t>
+    <t>新西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8A%A0%E6%8B%89%E7%93%9C</t>
@@ -767,7 +767,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>奈及利亞</t>
+    <t>奈及利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81</t>
@@ -791,7 +791,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E5%9C%8B</t>
   </si>
   <si>
-    <t>巴勒斯坦國</t>
+    <t>巴勒斯坦国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A9%AC</t>
@@ -815,19 +815,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
   </si>
   <si>
-    <t>秘魯</t>
+    <t>秘鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
+    <t>菲律宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
+    <t>波兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99</t>
@@ -839,7 +839,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%93%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>大韓民國</t>
+    <t>大韩民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%B0%94%E5%A4%9A%E7%93%A6</t>
@@ -851,13 +851,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>羅馬尼亞</t>
+    <t>罗马尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E8%81%AF%E9%82%A6</t>
   </si>
   <si>
-    <t>俄羅斯聯邦</t>
+    <t>俄罗斯联邦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94</t>
@@ -881,7 +881,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A4%9A%E7%BE%8E%E5%92%8C%E6%99%AE%E6%9E%97%E8%A5%BF%E6%AF%94</t>
   </si>
   <si>
-    <t>聖多美和普林西比</t>
+    <t>圣多美和普林西比</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%86%85%E5%8A%A0%E5%B0%94</t>
@@ -893,7 +893,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%88%BE%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>塞爾維亞</t>
+    <t>塞尔维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E8%88%8C%E5%B0%94</t>
@@ -917,7 +917,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>斯洛維尼亞</t>
+    <t>斯洛维尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%80%E7%BD%97%E9%97%A8%E7%BE%A4%E5%B2%9B</t>
@@ -929,7 +929,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A6%AC%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>索馬利亞</t>
+    <t>索马利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E</t>
@@ -947,13 +947,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E8%98%AD%E5%8D%A1</t>
   </si>
   <si>
-    <t>斯里蘭卡</t>
+    <t>斯里兰卡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%96%87%E6%A3%AE%E5%8F%8A%E6%A0%BC%E7%91%9E%E9%82%A3%E4%B8%81</t>
   </si>
   <si>
-    <t>聖文森及格瑞那丁</t>
+    <t>圣文森及格瑞那丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E4%B8%B9</t>
@@ -1001,13 +1001,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>泰國</t>
+    <t>泰国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>馬其頓共和國</t>
+    <t>马其顿共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%B8%9D%E6%B1%B6</t>
@@ -1025,13 +1025,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E9%87%8C%E9%81%94%E5%8F%8A%E6%89%98%E5%B7%B4%E5%93%A5</t>
   </si>
   <si>
-    <t>千里達及托巴哥</t>
+    <t>千里达及托巴哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>突尼西亞</t>
+    <t>突尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
@@ -1055,7 +1055,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD</t>
   </si>
   <si>
-    <t>烏克蘭</t>
+    <t>乌克兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
@@ -1073,7 +1073,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%A0%85%E5%90%88%E7%9C%BE%E5%9C%8B</t>
   </si>
   <si>
-    <t>美利堅合眾國</t>
+    <t>美利坚合众国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD</t>
@@ -1085,13 +1085,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E8%8C%B2%E5%88%A5%E5%85%8B</t>
   </si>
   <si>
-    <t>烏茲別克</t>
+    <t>乌兹别克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委內瑞拉</t>
+    <t>委内瑞拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97</t>
@@ -1103,13 +1103,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%89%E9%96%80</t>
   </si>
   <si>
-    <t>葉門</t>
+    <t>叶门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%9A%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>尚比亞</t>
+    <t>尚比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E5%B7%B4%E5%A8%81</t>
@@ -1127,15 +1127,12 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E4%BA%BA%E6%AC%8A</t>
   </si>
   <si>
-    <t>Template talk-人權</t>
+    <t>Template talk-人权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%AC%8A</t>
   </si>
   <si>
-    <t>人權</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Claim_rights_and_liberty_rights</t>
   </si>
   <si>
@@ -1151,7 +1148,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E8%88%87%E6%B3%95%E5%BE%8B%E6%AC%8A%E5%88%A9</t>
   </si>
   <si>
-    <t>自然與法律權利</t>
+    <t>自然与法律权利</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Negative_and_positive_rights</t>
@@ -1175,7 +1172,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A</t>
   </si>
   <si>
-    <t>主權</t>
+    <t>主权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%81%8D%E7%AE%A1%E8%BE%96%E6%9D%83</t>
@@ -1199,25 +1196,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E4%BA%BA%E6%AC%8A%E6%96%87%E6%9B%B8</t>
   </si>
   <si>
-    <t>國際人權文書</t>
+    <t>国际人权文书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E4%BA%BA%E6%AC%8A%E6%B3%95</t>
   </si>
   <si>
-    <t>國際人權法</t>
+    <t>国际人权法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E4%BA%BA%E9%81%93%E6%B3%95</t>
   </si>
   <si>
-    <t>國際人道法</t>
+    <t>国际人道法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E6%9C%AC%E6%AC%8A</t>
   </si>
   <si>
-    <t>基本權</t>
+    <t>基本权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E3%80%81%E7%A4%BE%E4%BC%9A%E5%92%8C%E6%96%87%E5%8C%96%E6%9D%83%E5%88%A9</t>
@@ -6974,7 +6971,7 @@
         <v>371</v>
       </c>
       <c r="F186" t="s">
-        <v>372</v>
+        <v>6</v>
       </c>
       <c r="G186" t="n">
         <v>6</v>
@@ -7000,10 +6997,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>372</v>
+      </c>
+      <c r="F187" t="s">
         <v>373</v>
-      </c>
-      <c r="F187" t="s">
-        <v>374</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7029,10 +7026,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>374</v>
+      </c>
+      <c r="F188" t="s">
         <v>375</v>
-      </c>
-      <c r="F188" t="s">
-        <v>376</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7058,10 +7055,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>376</v>
+      </c>
+      <c r="F189" t="s">
         <v>377</v>
-      </c>
-      <c r="F189" t="s">
-        <v>378</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7087,10 +7084,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>378</v>
+      </c>
+      <c r="F190" t="s">
         <v>379</v>
-      </c>
-      <c r="F190" t="s">
-        <v>380</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7116,10 +7113,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>380</v>
+      </c>
+      <c r="F191" t="s">
         <v>381</v>
-      </c>
-      <c r="F191" t="s">
-        <v>382</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7145,10 +7142,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>382</v>
+      </c>
+      <c r="F192" t="s">
         <v>383</v>
-      </c>
-      <c r="F192" t="s">
-        <v>384</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7174,10 +7171,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>384</v>
+      </c>
+      <c r="F193" t="s">
         <v>385</v>
-      </c>
-      <c r="F193" t="s">
-        <v>386</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7203,10 +7200,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>386</v>
+      </c>
+      <c r="F194" t="s">
         <v>387</v>
-      </c>
-      <c r="F194" t="s">
-        <v>388</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7232,10 +7229,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>388</v>
+      </c>
+      <c r="F195" t="s">
         <v>389</v>
-      </c>
-      <c r="F195" t="s">
-        <v>390</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7261,10 +7258,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>390</v>
+      </c>
+      <c r="F196" t="s">
         <v>391</v>
-      </c>
-      <c r="F196" t="s">
-        <v>392</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7290,10 +7287,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>392</v>
+      </c>
+      <c r="F197" t="s">
         <v>393</v>
-      </c>
-      <c r="F197" t="s">
-        <v>394</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7319,10 +7316,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>394</v>
+      </c>
+      <c r="F198" t="s">
         <v>395</v>
-      </c>
-      <c r="F198" t="s">
-        <v>396</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7348,10 +7345,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>396</v>
+      </c>
+      <c r="F199" t="s">
         <v>397</v>
-      </c>
-      <c r="F199" t="s">
-        <v>398</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7377,10 +7374,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>398</v>
+      </c>
+      <c r="F200" t="s">
         <v>399</v>
-      </c>
-      <c r="F200" t="s">
-        <v>400</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7406,10 +7403,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>400</v>
+      </c>
+      <c r="F201" t="s">
         <v>401</v>
-      </c>
-      <c r="F201" t="s">
-        <v>402</v>
       </c>
       <c r="G201" t="n">
         <v>3</v>
@@ -7435,10 +7432,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>402</v>
+      </c>
+      <c r="F202" t="s">
         <v>403</v>
-      </c>
-      <c r="F202" t="s">
-        <v>404</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7464,10 +7461,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>404</v>
+      </c>
+      <c r="F203" t="s">
         <v>405</v>
-      </c>
-      <c r="F203" t="s">
-        <v>406</v>
       </c>
       <c r="G203" t="n">
         <v>2</v>
@@ -7493,10 +7490,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F204" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
